--- a/ProjectPRN221/uploads/Book1.xlsx
+++ b/ProjectPRN221/uploads/Book1.xlsx
@@ -34,7 +34,7 @@
     <t>ShelfLocation</t>
   </si>
   <si>
-    <t>Hentai</t>
+    <t xml:space="preserve"> Tay Du Ky</t>
   </si>
   <si>
     <t>Duck</t>
@@ -45,10 +45,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -60,7 +60,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -74,8 +81,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -83,52 +120,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -142,31 +134,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -180,15 +150,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -197,7 +168,36 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -212,19 +212,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -236,31 +314,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -272,127 +356,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -403,15 +403,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -495,6 +486,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -508,15 +508,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -526,130 +526,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -982,7 +982,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="K8:L8"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="5"/>

--- a/ProjectPRN221/uploads/Book1.xlsx
+++ b/ProjectPRN221/uploads/Book1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Title</t>
   </si>
@@ -34,10 +34,13 @@
     <t>ShelfLocation</t>
   </si>
   <si>
-    <t xml:space="preserve"> Tay Du Ky</t>
+    <t>Duck</t>
   </si>
   <si>
-    <t>Duck</t>
+    <t>Thuy Hu</t>
+  </si>
+  <si>
+    <t>La Quan Trung</t>
   </si>
 </sst>
 </file>
@@ -45,10 +48,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -81,13 +84,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -99,13 +95,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -158,6 +147,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -212,187 +215,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -417,21 +420,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -465,6 +453,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -508,15 +511,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -529,94 +532,118 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -626,30 +653,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -979,13 +982,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="5"/>
   <cols>
     <col min="3" max="3" width="16"/>
   </cols>
@@ -1010,12 +1013,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
+    <row r="2" spans="2:6">
+      <c r="B2" t="s">
         <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
       </c>
       <c r="C2" s="1">
         <v>45096.6460069444</v>
@@ -1027,6 +1027,26 @@
         <v>13</v>
       </c>
       <c r="F2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1">
+        <v>45096.6460069444</v>
+      </c>
+      <c r="D3">
+        <v>12</v>
+      </c>
+      <c r="E3">
+        <v>11</v>
+      </c>
+      <c r="F3">
         <v>2</v>
       </c>
     </row>

--- a/ProjectPRN221/uploads/Book1.xlsx
+++ b/ProjectPRN221/uploads/Book1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Title</t>
   </si>
@@ -41,6 +41,15 @@
   </si>
   <si>
     <t>La Quan Trung</t>
+  </si>
+  <si>
+    <t>Tay Du Ky</t>
+  </si>
+  <si>
+    <t>Ngo Thua An</t>
+  </si>
+  <si>
+    <t>a</t>
   </si>
 </sst>
 </file>
@@ -63,22 +72,38 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -109,7 +134,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -131,69 +178,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -215,187 +224,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -406,6 +415,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -427,8 +445,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -444,6 +462,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -472,30 +505,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -511,7 +520,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -529,130 +538,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -982,13 +991,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="5"/>
   <cols>
     <col min="3" max="3" width="16"/>
   </cols>
@@ -1050,6 +1059,26 @@
         <v>2</v>
       </c>
     </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1">
+        <v>45096.6460069444</v>
+      </c>
+      <c r="D4">
+        <v>12</v>
+      </c>
+      <c r="E4">
+        <v>12</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/ProjectPRN221/uploads/Book1.xlsx
+++ b/ProjectPRN221/uploads/Book1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Title</t>
   </si>
@@ -34,6 +34,15 @@
     <t>ShelfLocation</t>
   </si>
   <si>
+    <t>Image</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Phim Hay</t>
+  </si>
+  <si>
     <t>Duck</t>
   </si>
   <si>
@@ -43,7 +52,10 @@
     <t>La Quan Trung</t>
   </si>
   <si>
-    <t>Tay Du Ky</t>
+    <t>https://trinhdinhlinh.com/sach/wp-content/uploads/2017/10/001-000-9.jpg</t>
+  </si>
+  <si>
+    <t>Trong tiểu thuyết, Trần Huyền Trang (陳玄奘) được Quan Âm Bồ Tát bảo đến Tây Trúc (Ấn Độ) thỉnh kinh Phật giáo mang về Trung Quốc. Theo ông là 4 đệ tử - một khỉ đá tên Tôn Ngộ Không (孫悟空), một yêu quái nửa người nửa lợn tên Trư Ngộ Năng (豬悟能)</t>
   </si>
   <si>
     <t>Ngo Thua An</t>
@@ -57,10 +69,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -71,6 +83,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -78,9 +105,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -88,6 +136,37 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -102,37 +181,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -141,14 +213,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -156,60 +221,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -224,187 +236,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -418,11 +430,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -445,8 +463,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -462,6 +480,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -484,23 +511,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -520,15 +532,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -538,139 +550,145 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -991,18 +1009,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="7"/>
   <cols>
     <col min="3" max="3" width="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1021,10 +1039,19 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="2:6">
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C2" s="1">
         <v>45096.6460069444</v>
@@ -1039,18 +1066,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" ht="409.5" spans="1:8">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C3" s="1">
         <v>45096.6460069444</v>
       </c>
       <c r="D3">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E3">
         <v>11</v>
@@ -1058,13 +1085,16 @@
       <c r="F3">
         <v>2</v>
       </c>
+      <c r="G3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
+    <row r="4" spans="2:6">
       <c r="B4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C4" s="1">
         <v>45096.6460069444</v>
@@ -1076,10 +1106,13 @@
         <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G3" r:id="rId1" display="https://trinhdinhlinh.com/sach/wp-content/uploads/2017/10/001-000-9.jpg"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
